--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1358860.783450626</v>
+        <v>1463040.417901698</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>282.3939120001637</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,16 +715,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>253.8293786295319</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>92.50360866660996</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106229</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>219.2565166098811</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>184.147735321692</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1102,22 +1104,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>249.8133846157332</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>259.0206322914228</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>239.1828520871927</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>29.71145624902102</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>26.29813691385327</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>145.232655080982</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833859</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>136.7593194687118</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>41.02686156550261</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.07147829118261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161238</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>101.9154861872837</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>89.67992556049211</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>122.6028762599962</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>13.72582864853771</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.601998493311</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533245</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557433</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>890.9213886294034</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C4" t="n">
-        <v>721.9852057014965</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D4" t="n">
-        <v>571.8685662891608</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.362432603173</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="X4" t="n">
-        <v>1293.362432603173</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="Y4" t="n">
-        <v>1072.569853459643</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1853.982617026599</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.020100086187</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1126.754401479436</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>740.9661488811921</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>329.9802440915846</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3139.598008152917</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.58245709072</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.5472171493652</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
         <v>478.4305777370295</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1393.441454535743</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1138.756966329856</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>849.3397962928954</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>849.3397962928954</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>628.5472171493652</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>2217.803762225667</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943747</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>922.5820433455026</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>511.596138555895</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>96.5236884008915</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>96.5236884008915</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2604.403602289789</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.570363233848</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="C10" t="n">
-        <v>629.570363233848</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1690.764439249069</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1401.661572374713</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1146.977084168826</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>857.5599141318653</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>629.570363233848</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>629.570363233848</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612593</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5291,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5369,16 @@
         <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5531,13 +5533,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5665,58 +5667,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,13 +5840,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622266</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343197</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219839</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395908</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>302.4540366416804</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>135.2579373565604</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934014</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>614.6217844681063</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,16 +6317,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>734.6461798836013</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4517.069482196493</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6716,22 +6718,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2939.372134388645</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2770.435951460738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2770.435951460738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2770.435951460738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>4435.461999481584</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>4435.461999481584</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,25 +7162,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D40" t="n">
-        <v>594.8179559048574</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E40" t="n">
-        <v>446.9048623224643</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F40" t="n">
-        <v>300.0149148245539</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="G40" t="n">
-        <v>132.8188155394338</v>
+        <v>107.6811364303332</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>107.6811364303332</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7490,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D43" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E43" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F43" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G43" t="n">
         <v>2479.398563024106</v>
@@ -7591,28 +7593,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>4681.594624329724</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>4498.739789984628</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>4279.13832500757</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823058</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>149.7636788678792</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>99.26785128072125</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.76050189075468</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.4693302300322</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>44.51847645928547</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>22.81817176293505</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>101.6825818796765</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>67.5400076700278</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194083</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
@@ -26341,7 +26343,7 @@
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
@@ -26350,10 +26352,10 @@
         <v>504466.6248062535</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26522,46 +26524,46 @@
         <v>-1015101.535076978</v>
       </c>
       <c r="C6" t="n">
-        <v>313643.2106506145</v>
+        <v>313643.2106506143</v>
       </c>
       <c r="D6" t="n">
         <v>313643.2106506143</v>
       </c>
       <c r="E6" t="n">
-        <v>65544.71299317287</v>
+        <v>65544.71299317335</v>
       </c>
       <c r="F6" t="n">
-        <v>390957.1748005284</v>
+        <v>390957.1748005283</v>
       </c>
       <c r="G6" t="n">
-        <v>390957.1748005284</v>
+        <v>390957.1748005287</v>
       </c>
       <c r="H6" t="n">
-        <v>390957.1748005284</v>
+        <v>390957.1748005282</v>
       </c>
       <c r="I6" t="n">
+        <v>390957.1748005285</v>
+      </c>
+      <c r="J6" t="n">
+        <v>173425.9724032508</v>
+      </c>
+      <c r="K6" t="n">
         <v>390957.1748005286</v>
       </c>
-      <c r="J6" t="n">
-        <v>173425.9724032509</v>
-      </c>
-      <c r="K6" t="n">
-        <v>390957.1748005285</v>
-      </c>
       <c r="L6" t="n">
-        <v>390957.1748005284</v>
+        <v>390957.1748005286</v>
       </c>
       <c r="M6" t="n">
-        <v>305902.1468650166</v>
+        <v>305902.1468650168</v>
       </c>
       <c r="N6" t="n">
         <v>390957.1748005283</v>
       </c>
       <c r="O6" t="n">
-        <v>390957.1748005285</v>
+        <v>390957.1748005284</v>
       </c>
       <c r="P6" t="n">
-        <v>390957.1748005283</v>
+        <v>390957.1748005284</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.87897977084384</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>95.41159008788114</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.93035397995921</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>191.6652090435723</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>143.6045231484429</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>36.39845358987972</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.50236604516823</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>126.0900396838149</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.86547352390494</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>153.533843268084</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>74.3162941951872</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>558.3177848342784</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,7 +32089,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,16 +32560,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,31 +32797,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>675.4898072958213</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639541</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814922</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>426.9760727509451</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35735,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,16 +36208,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>533.355773373803</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962379</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>161.999986601618</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1463040.417901698</v>
+        <v>1459027.807887705</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>47.87730750144004</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>253.8293786295319</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.2419515106229</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074483056</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>184.147735321692</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W7" t="n">
-        <v>259.0206322914228</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>239.1828520871927</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926972</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.29813691385327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>38.95525409458268</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>136.7593194687118</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>41.02686156550218</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>41.55695577161238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.7084378797731</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>89.67992556049211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.97427419833861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>13.72582864853771</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>215.3025979624043</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>567.8558366504435</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>156.8699318608359</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,25 +4330,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2752.944093773487</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2752.944093773487</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962486</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034579</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622243</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.95903803985</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.06909054194</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193526</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763052</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.322864763052</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V4" t="n">
-        <v>2822.322864763052</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>2822.322864763052</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2822.322864763052</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792726</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>3139.598008152917</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,28 +4670,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.464090846021</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2217.803762225667</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2994.542934265601</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2604.403602289789</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6709106036544</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641123</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.2346852641123</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5178,22 +5178,22 @@
         <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5272,34 +5272,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.935454102179</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1428749586493</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510509</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6697,52 +6697,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998291</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.843151638089</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>422.7903292978464</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>274.8772357154533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>274.8772357154533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>107.6811364303332</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>107.6811364303332</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2815.530845237133</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4681.594624329724</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4498.739789984628</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4279.13832500757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3445.96144010892</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>3217.971889210903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>2997.179310067373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998291</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>152.3434691354489</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>186.7544012944545</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>149.7636788678792</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>40.23897475306335</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4693302300322</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>127.7255247667962</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.5400076700278</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194083</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>70.88187642683985</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062537</v>
@@ -26368,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,19 +26377,19 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316932</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26524,46 +26524,46 @@
         <v>-1015101.535076978</v>
       </c>
       <c r="C6" t="n">
-        <v>313643.2106506143</v>
+        <v>313643.2106506142</v>
       </c>
       <c r="D6" t="n">
-        <v>313643.2106506143</v>
+        <v>313643.2106506145</v>
       </c>
       <c r="E6" t="n">
-        <v>65544.71299317335</v>
+        <v>65197.33373881636</v>
       </c>
       <c r="F6" t="n">
-        <v>390957.1748005283</v>
+        <v>390609.7955461714</v>
       </c>
       <c r="G6" t="n">
-        <v>390957.1748005287</v>
+        <v>390609.7955461714</v>
       </c>
       <c r="H6" t="n">
-        <v>390957.1748005282</v>
+        <v>390609.7955461714</v>
       </c>
       <c r="I6" t="n">
-        <v>390957.1748005285</v>
+        <v>390609.7955461715</v>
       </c>
       <c r="J6" t="n">
-        <v>173425.9724032508</v>
+        <v>173078.5931488939</v>
       </c>
       <c r="K6" t="n">
-        <v>390957.1748005286</v>
+        <v>390609.7955461715</v>
       </c>
       <c r="L6" t="n">
-        <v>390957.1748005286</v>
+        <v>390609.7955461714</v>
       </c>
       <c r="M6" t="n">
-        <v>305902.1468650168</v>
+        <v>305554.7676106598</v>
       </c>
       <c r="N6" t="n">
-        <v>390957.1748005283</v>
+        <v>390609.7955461715</v>
       </c>
       <c r="O6" t="n">
-        <v>390957.1748005284</v>
+        <v>390609.7955461715</v>
       </c>
       <c r="P6" t="n">
-        <v>390957.1748005284</v>
+        <v>390609.7955461715</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,13 +26971,13 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>363.0444181520134</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>95.41159008788114</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>206.1202045604618</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.9183408758524</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>143.6045231484429</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W7" t="n">
-        <v>27.50236604516823</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>126.0900396838149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>307.2767095024417</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.533843268084</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>675.4898072958213</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>533.355773373803</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1459027.807887705</v>
+        <v>1460788.338190491</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>56.95878470059987</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>47.87730750144004</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>13.42874471570741</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>224.2131267027213</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>79.76470074483056</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.41254713315934</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50.73003670622381</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>99.59933623926972</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1429,13 +1429,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>116.9323399797389</v>
       </c>
       <c r="C13" t="n">
-        <v>14.90335196317894</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>27.77749086859501</v>
       </c>
       <c r="S16" t="n">
-        <v>36.4306205949047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.02686156550218</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>185.6920487814947</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>83.71156409265949</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>13.72582864853726</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4191,16 +4191,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>215.3025979624043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855438</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D2" t="n">
-        <v>953.6440892486878</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E2" t="n">
-        <v>567.8558366504435</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>156.8699318608359</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1722.044275313594</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1722.044275313594</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1722.044275313594</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1698.509627919561</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919561</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>428.3236015902727</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>260.6207649649916</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>114.4035781828494</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796274</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796274</v>
+        <v>1669.181684446221</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796274</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796274</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919561</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943749</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,34 +5272,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2418.905011995821</v>
       </c>
       <c r="S16" t="n">
-        <v>2410.164476918741</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.563011941682</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.48778528588</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.803297079993</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043032</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908939</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2112.505410040436</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>62.89964020219837</v>
       </c>
       <c r="C13" t="n">
-        <v>152.3434691354489</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892487</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>38.59775584152668</v>
       </c>
       <c r="S16" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>40.23897475306335</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>31.71340154579357</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>99.26785128072183</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.6938862346288</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>70.88187642683985</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864908</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919628.8599864912</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
@@ -26334,28 +26334,28 @@
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316946</v>
+      </c>
+      <c r="C4" t="n">
+        <v>91573.95495316945</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316939</v>
-      </c>
-      <c r="C4" t="n">
-        <v>91573.95495316932</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316933</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26524,46 +26524,46 @@
         <v>-1015101.535076978</v>
       </c>
       <c r="C6" t="n">
-        <v>313643.2106506142</v>
+        <v>313643.2106506143</v>
       </c>
       <c r="D6" t="n">
-        <v>313643.2106506145</v>
+        <v>313643.2106506143</v>
       </c>
       <c r="E6" t="n">
-        <v>65197.33373881636</v>
+        <v>65509.97506773773</v>
       </c>
       <c r="F6" t="n">
-        <v>390609.7955461714</v>
+        <v>390922.4368750928</v>
       </c>
       <c r="G6" t="n">
-        <v>390609.7955461714</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="H6" t="n">
-        <v>390609.7955461714</v>
+        <v>390922.4368750926</v>
       </c>
       <c r="I6" t="n">
-        <v>390609.7955461715</v>
+        <v>390922.4368750926</v>
       </c>
       <c r="J6" t="n">
-        <v>173078.5931488939</v>
+        <v>173391.2344778153</v>
       </c>
       <c r="K6" t="n">
-        <v>390609.7955461715</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="L6" t="n">
-        <v>390609.7955461714</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="M6" t="n">
-        <v>305554.7676106598</v>
+        <v>305867.408939581</v>
       </c>
       <c r="N6" t="n">
-        <v>390609.7955461715</v>
+        <v>390922.4368750926</v>
       </c>
       <c r="O6" t="n">
-        <v>390609.7955461715</v>
+        <v>390922.4368750929</v>
       </c>
       <c r="P6" t="n">
-        <v>390609.7955461715</v>
+        <v>390922.4368750928</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>325.7750569628807</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>363.0444181520134</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>206.1202045604618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>158.5207149607592</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>274.9183408758524</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>48.93987327667875</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>303.9530049144591</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.2767095024417</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
